--- a/每日项目总结.xlsx
+++ b/每日项目总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,19 +33,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目完成情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目设计
+2.环境搭建
+3.确定分工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用+首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果+商品列表+商品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车+结算+登录注册+公司简介+订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页眉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页首+首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,21 +136,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,101 +442,135 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>9.11</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>9.11</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>9.1300000000000008</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>9.14</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>9.15</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/每日项目总结.xlsx
+++ b/每日项目总结.xlsx
@@ -83,7 +83,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页首+首页</t>
+    <t>页脚+首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,10 +153,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,34 +456,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -492,10 +492,10 @@
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>

--- a/每日项目总结.xlsx
+++ b/每日项目总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>页脚+首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见Xmind文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大致明确了合作方式和项目目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,17 +450,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -496,8 +504,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">

--- a/每日项目总结.xlsx
+++ b/每日项目总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索结果+商品列表+商品详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购物车+结算+登录注册+公司简介+订单信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,19 +75,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页眉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页脚+首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>见Xmind文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大致明确了合作方式和项目目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页眉+部分首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页脚+部分首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情+商品列表+搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情+搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式基本完成，部分逻辑实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +462,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,8 +470,8 @@
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="38.75" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,10 +497,10 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -501,14 +513,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -519,12 +531,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -532,13 +546,13 @@
         <v>9.1300000000000008</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
@@ -548,13 +562,13 @@
         <v>9.14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
@@ -564,13 +578,13 @@
         <v>9.15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>

--- a/每日项目总结.xlsx
+++ b/每日项目总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>样式基本完成，部分逻辑实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司简介、订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还差一个搜索结果（晚上赶），完成了明天的登录注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大致理清了逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,16 +478,16 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
     <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,8 +570,12 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -565,10 +585,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>

--- a/每日项目总结.xlsx
+++ b/每日项目总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>大致理清了逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上赶完了搜索结果页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +482,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -590,7 +594,9 @@
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">

--- a/每日项目总结.xlsx
+++ b/每日项目总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,7 +123,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>昨天晚上赶完了搜索结果页面</t>
+    <t>1.购物车结算完成
+2. 登录注册完成
+3. 公司简介订单信息待美化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +488,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,7 +587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>9.14</v>
       </c>
@@ -594,7 +600,7 @@
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="4"/>
@@ -607,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
